--- a/notes/FINAL450.xlsx
+++ b/notes/FINAL450.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="936" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="780" yWindow="930" windowWidth="18420" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1441,6 +1441,9 @@
   </si>
   <si>
     <t>Brilliant solution. Concat str1 twice, and then search str2 in that, if its found then yes otherwise no</t>
+  </si>
+  <si>
+    <t>TLE, although test case passed</t>
   </si>
 </sst>
 </file>
@@ -1628,7 +1631,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1680,7 +1683,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1874,7 +1877,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1884,19 +1887,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="B309" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D322" sqref="D322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" customWidth="1"/>
+    <col min="4" max="4" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.6">
+    <row r="1" spans="1:3" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="19.8">
+    <row r="173" spans="1:3" ht="19.5">
       <c r="A173" s="8" t="s">
         <v>134</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="239" spans="1:4" ht="32.4">
+    <row r="239" spans="1:4" ht="33">
       <c r="A239" s="5" t="s">
         <v>230</v>
       </c>
@@ -5263,7 +5266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="21">
+    <row r="321" spans="1:4" ht="21">
       <c r="A321" s="5" t="s">
         <v>285</v>
       </c>
@@ -5274,18 +5277,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="21">
+    <row r="322" spans="1:4" ht="21">
       <c r="A322" s="5" t="s">
         <v>285</v>
       </c>
       <c r="B322" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C322" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:3" ht="21">
+      <c r="C322" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="D322" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="21">
       <c r="A323" s="5" t="s">
         <v>285</v>
       </c>
@@ -5296,7 +5302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="21">
+    <row r="324" spans="1:4" ht="21">
       <c r="A324" s="5" t="s">
         <v>285</v>
       </c>
@@ -5307,7 +5313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="21">
+    <row r="325" spans="1:4" ht="21">
       <c r="A325" s="5" t="s">
         <v>285</v>
       </c>
@@ -5318,7 +5324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="21">
+    <row r="326" spans="1:4" ht="21">
       <c r="A326" s="5" t="s">
         <v>285</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="21">
+    <row r="327" spans="1:4" ht="21">
       <c r="A327" s="5" t="s">
         <v>285</v>
       </c>
@@ -5340,7 +5346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="21">
+    <row r="328" spans="1:4" ht="21">
       <c r="A328" s="5" t="s">
         <v>285</v>
       </c>
@@ -5351,7 +5357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="21">
+    <row r="329" spans="1:4" ht="21">
       <c r="A329" s="5" t="s">
         <v>285</v>
       </c>
@@ -5362,7 +5368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="21">
+    <row r="330" spans="1:4" ht="21">
       <c r="A330" s="5" t="s">
         <v>285</v>
       </c>
@@ -5373,7 +5379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="21">
+    <row r="331" spans="1:4" ht="21">
       <c r="A331" s="5" t="s">
         <v>285</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="21">
+    <row r="332" spans="1:4" ht="21">
       <c r="A332" s="5" t="s">
         <v>285</v>
       </c>
@@ -5395,7 +5401,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="21">
+    <row r="333" spans="1:4" ht="21">
       <c r="A333" s="5" t="s">
         <v>285</v>
       </c>
@@ -5406,15 +5412,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="21">
+    <row r="334" spans="1:4" ht="21">
       <c r="B334" s="7"/>
       <c r="C334" s="4"/>
     </row>
-    <row r="335" spans="1:3" ht="21">
+    <row r="335" spans="1:4" ht="21">
       <c r="B335" s="7"/>
       <c r="C335" s="4"/>
     </row>
-    <row r="336" spans="1:3" ht="21">
+    <row r="336" spans="1:4" ht="21">
       <c r="A336" s="8" t="s">
         <v>324</v>
       </c>
@@ -5638,8 +5644,8 @@
       <c r="B357" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C357" s="4" t="s">
-        <v>4</v>
+      <c r="C357" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
@@ -5649,8 +5655,8 @@
       <c r="B358" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C358" s="4" t="s">
-        <v>4</v>
+      <c r="C358" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
